--- a/Data/WBID_criteria.xlsx
+++ b/Data/WBID_criteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pinellasgov-my.sharepoint.com/personal/bcc105701_bcc_pinellas_gov/Documents/Desktop/dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pinellasgov-my.sharepoint.com/personal/bcc105701_bcc_pinellas_gov/Documents/Desktop/water_quality_dashboard/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="8_{7234A8D5-3945-4A45-92BD-B4BCF29C355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7592F1BD-C863-4F4A-B8EF-C093BB1B0B27}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="8_{7234A8D5-3945-4A45-92BD-B4BCF29C355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC6766F5-2506-45C8-9EC6-FA5885B82D51}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE13FCFD-69C3-482F-A9D3-58396836E9E2}"/>
+    <workbookView minimized="1" xWindow="2880" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{BE13FCFD-69C3-482F-A9D3-58396836E9E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEB8270-E891-48E2-9417-9A696D4AB26E}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/WBID_criteria.xlsx
+++ b/Data/WBID_criteria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pinellasgov-my.sharepoint.com/personal/bcc105701_bcc_pinellas_gov/Documents/Desktop/water_quality_dashboard/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Watershed\MONITORING\AMBIENT\Analysis\R\Rchive\water_quality_dashboard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="8_{7234A8D5-3945-4A45-92BD-B4BCF29C355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC6766F5-2506-45C8-9EC6-FA5885B82D51}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF678594-3D21-4EE2-B59B-7A2F17F47FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2880" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{BE13FCFD-69C3-482F-A9D3-58396836E9E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE13FCFD-69C3-482F-A9D3-58396836E9E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>1604B1</t>
   </si>
   <si>
-    <t>1633D</t>
-  </si>
-  <si>
     <t>1633E</t>
   </si>
   <si>
@@ -466,6 +463,9 @@
   </si>
   <si>
     <t>34TH STREET BASIN</t>
+  </si>
+  <si>
+    <t>1633C</t>
   </si>
 </sst>
 </file>
@@ -825,62 +825,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEB8270-E891-48E2-9417-9A696D4AB26E}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:I67"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1440</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1">
         <v>11</v>
@@ -898,15 +898,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1474</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
@@ -924,15 +924,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1475</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -950,15 +950,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1">
         <v>11</v>
@@ -976,15 +976,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1528</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1">
         <v>7.6</v>
@@ -999,15 +999,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1529</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1">
         <v>20</v>
@@ -1025,15 +1025,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1530</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1">
         <v>11</v>
@@ -1051,15 +1051,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1550</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -1077,15 +1077,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1">
         <v>11</v>
@@ -1103,15 +1103,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1569</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1">
         <v>11</v>
@@ -1129,15 +1129,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
         <v>20</v>
@@ -1155,15 +1155,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
@@ -1181,41 +1181,41 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G14" s="1">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="G14" s="1">
-        <v>38</v>
-      </c>
-      <c r="H14" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1">
         <v>11</v>
@@ -1233,15 +1233,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1">
         <v>20</v>
@@ -1259,15 +1259,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1633</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1">
         <v>11</v>
@@ -1285,15 +1285,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1">
         <v>11</v>
@@ -1311,15 +1311,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1">
         <v>20</v>
@@ -1337,15 +1337,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1661</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1">
         <v>8.5</v>
@@ -1360,15 +1360,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1683</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1">
         <v>11</v>
@@ -1386,15 +1386,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1696</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1">
         <v>20</v>
@@ -1412,15 +1412,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1700</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1">
         <v>11</v>
@@ -1438,15 +1438,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>8045</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1">
         <v>3.1</v>
@@ -1461,15 +1461,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1">
         <v>20</v>
@@ -1487,15 +1487,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1">
         <v>20</v>
@@ -1513,41 +1513,41 @@
         <v>410</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G27" s="1">
+        <v>38</v>
+      </c>
+      <c r="H27" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="1">
-        <v>20</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="G27" s="1">
-        <v>38</v>
-      </c>
-      <c r="H27" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1">
         <v>8.3000000000000007</v>
@@ -1562,15 +1562,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="1">
         <v>5.4</v>
@@ -1585,15 +1585,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1">
         <v>20</v>
@@ -1611,15 +1611,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="1">
         <v>20</v>
@@ -1637,15 +1637,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1">
         <v>20</v>
@@ -1663,15 +1663,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1">
         <v>20</v>
@@ -1689,41 +1689,41 @@
         <v>410</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G34" s="1">
+        <v>38</v>
+      </c>
+      <c r="H34" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="1">
-        <v>20</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="G34" s="1">
-        <v>38</v>
-      </c>
-      <c r="H34" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1">
         <v>9.3000000000000007</v>
@@ -1738,15 +1738,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="1">
         <v>9.3000000000000007</v>
@@ -1761,15 +1761,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="1">
         <v>9.3000000000000007</v>
@@ -1784,15 +1784,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="1">
         <v>9.3000000000000007</v>
@@ -1807,15 +1807,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="1">
         <v>9.3000000000000007</v>
@@ -1830,15 +1830,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1">
         <v>9.3000000000000007</v>
@@ -1853,15 +1853,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="1">
         <v>9.3000000000000007</v>
@@ -1876,15 +1876,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D42" s="1">
         <v>6.3</v>
@@ -1899,15 +1899,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="1">
         <v>20</v>
@@ -1925,15 +1925,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="1">
         <v>20</v>
@@ -1951,41 +1951,41 @@
         <v>410</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G45" s="1">
+        <v>38</v>
+      </c>
+      <c r="H45" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="1">
-        <v>20</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="G45" s="1">
-        <v>38</v>
-      </c>
-      <c r="H45" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="1">
         <v>20</v>
@@ -2003,15 +2003,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="1">
         <v>20</v>
@@ -2029,41 +2029,41 @@
         <v>410</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="1">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G48" s="1">
+        <v>38</v>
+      </c>
+      <c r="H48" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="1">
-        <v>20</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="G48" s="1">
-        <v>38</v>
-      </c>
-      <c r="H48" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" s="1">
         <v>20</v>
@@ -2081,41 +2081,41 @@
         <v>410</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G50" s="1">
+        <v>38</v>
+      </c>
+      <c r="H50" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="1">
-        <v>20</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="G50" s="1">
-        <v>38</v>
-      </c>
-      <c r="H50" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" s="1">
         <v>30</v>
@@ -2133,15 +2133,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D52" s="1">
         <v>30</v>
@@ -2159,15 +2159,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="1">
         <v>8.3000000000000007</v>
@@ -2182,15 +2182,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54" s="1">
         <v>20</v>
@@ -2208,15 +2208,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" s="1">
         <v>20</v>
@@ -2234,15 +2234,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D56" s="1">
         <v>11</v>
@@ -2260,41 +2260,41 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="1">
+        <v>20</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G57" s="1">
+        <v>38</v>
+      </c>
+      <c r="H57" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="1">
-        <v>20</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="G57" s="1">
-        <v>38</v>
-      </c>
-      <c r="H57" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" s="1">
         <v>20</v>
@@ -2312,15 +2312,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" s="1">
         <v>20</v>
@@ -2338,15 +2338,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" s="1">
         <v>20</v>
@@ -2364,15 +2364,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" s="1">
         <v>20</v>
@@ -2390,41 +2390,41 @@
         <v>410</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="1">
+        <v>20</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G62" s="1">
+        <v>38</v>
+      </c>
+      <c r="H62" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="1">
-        <v>20</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="F62" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="G62" s="1">
-        <v>38</v>
-      </c>
-      <c r="H62" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D63" s="1">
         <v>8.3000000000000007</v>
@@ -2439,15 +2439,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D64" s="1">
         <v>8.3000000000000007</v>
@@ -2462,15 +2462,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D65" s="1">
         <v>11</v>
@@ -2488,15 +2488,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D66" s="1">
         <v>11</v>
@@ -2514,15 +2514,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67" s="1">
         <v>20</v>
@@ -2556,66 +2556,66 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Data/WBID_criteria.xlsx
+++ b/Data/WBID_criteria.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Watershed\MONITORING\AMBIENT\Analysis\R\Rchive\water_quality_dashboard\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pinellasgov.sharepoint.com/sites/BCC-PW-ENVMT/Monitoring and Assessment/R/water_quality_dashboard/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF678594-3D21-4EE2-B59B-7A2F17F47FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="13_ncr:1_{7A309D96-916D-4D0A-99DA-2AF397C66AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1C5E28A-D0A5-4A3F-BC98-970BDB35D7FD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE13FCFD-69C3-482F-A9D3-58396836E9E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
     <sheet name="Units" sheetId="5" r:id="rId2"/>
+    <sheet name="Sites" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="290">
   <si>
     <t>WBID</t>
   </si>
@@ -466,13 +467,464 @@
   </si>
   <si>
     <t>1633C</t>
+  </si>
+  <si>
+    <t>1633D</t>
+  </si>
+  <si>
+    <t>MCKAY CREEK ABOVE WALSINGHAM RESERVOIR</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>01-01</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>01-03</t>
+  </si>
+  <si>
+    <t>01-08</t>
+  </si>
+  <si>
+    <t>01-09</t>
+  </si>
+  <si>
+    <t>1475</t>
+  </si>
+  <si>
+    <t>01-10</t>
+  </si>
+  <si>
+    <t>01-11</t>
+  </si>
+  <si>
+    <t>01-12</t>
+  </si>
+  <si>
+    <t>01-32</t>
+  </si>
+  <si>
+    <t>ANCLOTE RIVER BAYOU COMPLEX (SPRING BAYOU)</t>
+  </si>
+  <si>
+    <t>1440A</t>
+  </si>
+  <si>
+    <t>01-33</t>
+  </si>
+  <si>
+    <t>01-35</t>
+  </si>
+  <si>
+    <t>02-02</t>
+  </si>
+  <si>
+    <t>KLOSTERMAN BAYOU RUN (TIDAL)</t>
+  </si>
+  <si>
+    <t>02-07</t>
+  </si>
+  <si>
+    <t>02-09</t>
+  </si>
+  <si>
+    <t>04-02</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>04-03</t>
+  </si>
+  <si>
+    <t>04-04</t>
+  </si>
+  <si>
+    <t>05-05</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>05-06</t>
+  </si>
+  <si>
+    <t>05-07</t>
+  </si>
+  <si>
+    <t>06-03</t>
+  </si>
+  <si>
+    <t>1529</t>
+  </si>
+  <si>
+    <t>06-04</t>
+  </si>
+  <si>
+    <t>06-06</t>
+  </si>
+  <si>
+    <t>08-03</t>
+  </si>
+  <si>
+    <t>09-02</t>
+  </si>
+  <si>
+    <t>09-03</t>
+  </si>
+  <si>
+    <t>10-02</t>
+  </si>
+  <si>
+    <t>10-06</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>10-08</t>
+  </si>
+  <si>
+    <t>10-09</t>
+  </si>
+  <si>
+    <t>10-10</t>
+  </si>
+  <si>
+    <t>10-11</t>
+  </si>
+  <si>
+    <t>10-12</t>
+  </si>
+  <si>
+    <t>11-05</t>
+  </si>
+  <si>
+    <t>12-02</t>
+  </si>
+  <si>
+    <t>BISHOP CREEK TIDAL</t>
+  </si>
+  <si>
+    <t>1569</t>
+  </si>
+  <si>
+    <t>12-03</t>
+  </si>
+  <si>
+    <t>12-04</t>
+  </si>
+  <si>
+    <t>12-06</t>
+  </si>
+  <si>
+    <t>13-02</t>
+  </si>
+  <si>
+    <t>13-05</t>
+  </si>
+  <si>
+    <t>14-02</t>
+  </si>
+  <si>
+    <t>14-07</t>
+  </si>
+  <si>
+    <t>14-09</t>
+  </si>
+  <si>
+    <t>14-10</t>
+  </si>
+  <si>
+    <t>14-11</t>
+  </si>
+  <si>
+    <t>14-12</t>
+  </si>
+  <si>
+    <t>15-04</t>
+  </si>
+  <si>
+    <t>17-01</t>
+  </si>
+  <si>
+    <t>17-03</t>
+  </si>
+  <si>
+    <t>18-03</t>
+  </si>
+  <si>
+    <t>18-06</t>
+  </si>
+  <si>
+    <t>19-02</t>
+  </si>
+  <si>
+    <t>19-03</t>
+  </si>
+  <si>
+    <t>19-05</t>
+  </si>
+  <si>
+    <t>19-07</t>
+  </si>
+  <si>
+    <t>19-08</t>
+  </si>
+  <si>
+    <t>19-09</t>
+  </si>
+  <si>
+    <t>19-11</t>
+  </si>
+  <si>
+    <t>19-10</t>
+  </si>
+  <si>
+    <t>ALLEN'S CREEK CANAL</t>
+  </si>
+  <si>
+    <t>1604B2</t>
+  </si>
+  <si>
+    <t>19-12</t>
+  </si>
+  <si>
+    <t>19-13</t>
+  </si>
+  <si>
+    <t>19-14</t>
+  </si>
+  <si>
+    <t>19-15</t>
+  </si>
+  <si>
+    <t>22-01</t>
+  </si>
+  <si>
+    <t>22-05</t>
+  </si>
+  <si>
+    <t>22-07</t>
+  </si>
+  <si>
+    <t>22-08</t>
+  </si>
+  <si>
+    <t>22-12</t>
+  </si>
+  <si>
+    <t>22-13</t>
+  </si>
+  <si>
+    <t>22-14</t>
+  </si>
+  <si>
+    <t>22-15</t>
+  </si>
+  <si>
+    <t>22-16</t>
+  </si>
+  <si>
+    <t>23-05</t>
+  </si>
+  <si>
+    <t>23-07</t>
+  </si>
+  <si>
+    <t>23-08</t>
+  </si>
+  <si>
+    <t>24-01</t>
+  </si>
+  <si>
+    <t>24-02</t>
+  </si>
+  <si>
+    <t>24-03</t>
+  </si>
+  <si>
+    <t>24-07</t>
+  </si>
+  <si>
+    <t>25-02</t>
+  </si>
+  <si>
+    <t>25-06</t>
+  </si>
+  <si>
+    <t>25-07</t>
+  </si>
+  <si>
+    <t>25-08</t>
+  </si>
+  <si>
+    <t>27-01</t>
+  </si>
+  <si>
+    <t>1633</t>
+  </si>
+  <si>
+    <t>27-03</t>
+  </si>
+  <si>
+    <t>MCKAY CREEK</t>
+  </si>
+  <si>
+    <t>1633B</t>
+  </si>
+  <si>
+    <t>27-08</t>
+  </si>
+  <si>
+    <t>27-09</t>
+  </si>
+  <si>
+    <t>27-10</t>
+  </si>
+  <si>
+    <t>27-11</t>
+  </si>
+  <si>
+    <t>27-13</t>
+  </si>
+  <si>
+    <t>27-14</t>
+  </si>
+  <si>
+    <t>27-15</t>
+  </si>
+  <si>
+    <t>29-11</t>
+  </si>
+  <si>
+    <t>PINELLAS PARK DITCH NO. 1 (FRESH SEGMENT)</t>
+  </si>
+  <si>
+    <t>32-03</t>
+  </si>
+  <si>
+    <t>1683</t>
+  </si>
+  <si>
+    <t>35-01</t>
+  </si>
+  <si>
+    <t>PINELLAS PARK DITCH NO. 5 (BONN CREEK)</t>
+  </si>
+  <si>
+    <t>35-04</t>
+  </si>
+  <si>
+    <t>35-09</t>
+  </si>
+  <si>
+    <t>35-10</t>
+  </si>
+  <si>
+    <t>35-11</t>
+  </si>
+  <si>
+    <t>35-12</t>
+  </si>
+  <si>
+    <t>35-14</t>
+  </si>
+  <si>
+    <t>35-15</t>
+  </si>
+  <si>
+    <t>39-01</t>
+  </si>
+  <si>
+    <t>BEAR CREEK (TIDAL PORTION)</t>
+  </si>
+  <si>
+    <t>1701B</t>
+  </si>
+  <si>
+    <t>39-02</t>
+  </si>
+  <si>
+    <t>BEAR CREEK</t>
+  </si>
+  <si>
+    <t>1701A</t>
+  </si>
+  <si>
+    <t>39-05</t>
+  </si>
+  <si>
+    <t>40-02</t>
+  </si>
+  <si>
+    <t>1696</t>
+  </si>
+  <si>
+    <t>44-02</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>45-03</t>
+  </si>
+  <si>
+    <t>1716D</t>
+  </si>
+  <si>
+    <t>CLAM BAYOU DRAIN (TIDAL)</t>
+  </si>
+  <si>
+    <t>46-03</t>
+  </si>
+  <si>
+    <t>48-03</t>
+  </si>
+  <si>
+    <t>FRENCHMANS'S CREEK - BASIN U</t>
+  </si>
+  <si>
+    <t>51-02</t>
+  </si>
+  <si>
+    <t>53-05</t>
+  </si>
+  <si>
+    <t>WALL SPRING (HEALTH SPRINGS)</t>
+  </si>
+  <si>
+    <t>1512Z</t>
+  </si>
+  <si>
+    <t>53-06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,12 +953,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -526,10 +985,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -567,7 +1030,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -673,7 +1136,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -815,7 +1278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -823,27 +1286,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEB8270-E891-48E2-9417-9A696D4AB26E}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,7 +1335,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1440</v>
       </c>
@@ -898,7 +1361,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1474</v>
       </c>
@@ -924,7 +1387,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1475</v>
       </c>
@@ -950,7 +1413,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -976,7 +1439,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1528</v>
       </c>
@@ -999,7 +1462,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1529</v>
       </c>
@@ -1025,7 +1488,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1530</v>
       </c>
@@ -1051,7 +1514,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1550</v>
       </c>
@@ -1077,7 +1540,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +1566,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1569</v>
       </c>
@@ -1129,7 +1592,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1155,7 +1618,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1181,7 +1644,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1207,7 +1670,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,7 +1696,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1259,7 +1722,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1633</v>
       </c>
@@ -1285,7 +1748,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1311,7 +1774,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1337,7 +1800,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1661</v>
       </c>
@@ -1360,7 +1823,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1683</v>
       </c>
@@ -1386,7 +1849,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1696</v>
       </c>
@@ -1412,7 +1875,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1700</v>
       </c>
@@ -1438,7 +1901,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>8045</v>
       </c>
@@ -1461,50 +1924,50 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>99</v>
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1">
-        <v>2.23</v>
+        <v>1.54</v>
       </c>
       <c r="F25" s="1">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G25" s="1">
         <v>38</v>
       </c>
-      <c r="H25" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1">
         <v>20</v>
       </c>
       <c r="E26" s="1">
-        <v>1.54</v>
+        <v>2.23</v>
       </c>
       <c r="F26" s="1">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="G26" s="1">
         <v>38</v>
@@ -1513,12 +1976,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -1539,110 +2002,110 @@
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G28" s="1">
+        <v>38</v>
+      </c>
+      <c r="I28" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G29" s="1">
+        <v>38</v>
+      </c>
+      <c r="H29" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D30" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E30" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F30" s="1">
         <v>0.11</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G30" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D31" s="1">
         <v>5.4</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E31" s="1">
         <v>0.61</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F31" s="1">
         <v>0.05</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G31" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="1">
-        <v>20</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="G30" s="1">
-        <v>38</v>
-      </c>
-      <c r="H30" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="1">
-        <v>20</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="G31" s="1">
-        <v>38</v>
-      </c>
-      <c r="H31" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -1663,12 +2126,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -1689,12 +2152,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -1715,58 +2178,64 @@
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G35" s="1">
+        <v>38</v>
+      </c>
+      <c r="H35" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G36" s="1">
+        <v>38</v>
+      </c>
+      <c r="H36" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="G35" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="G36" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>52</v>
@@ -1784,12 +2253,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>52</v>
@@ -1807,12 +2276,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>52</v>
@@ -1830,12 +2299,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>52</v>
@@ -1853,12 +2322,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>52</v>
@@ -1876,87 +2345,81 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D42" s="1">
-        <v>6.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E42" s="1">
-        <v>0.54</v>
+        <v>0.93</v>
       </c>
       <c r="F42" s="1">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="G42" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D43" s="1">
-        <v>20</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E43" s="1">
-        <v>1.54</v>
+        <v>0.93</v>
       </c>
       <c r="F43" s="1">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="G43" s="1">
-        <v>38</v>
-      </c>
-      <c r="H43" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D44" s="1">
-        <v>20</v>
+        <v>6.3</v>
       </c>
       <c r="E44" s="1">
-        <v>1.54</v>
+        <v>0.54</v>
       </c>
       <c r="F44" s="1">
         <v>0.12</v>
       </c>
       <c r="G44" s="1">
-        <v>38</v>
-      </c>
-      <c r="H44" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -1977,24 +2440,24 @@
         <v>410</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D46" s="1">
         <v>20</v>
       </c>
       <c r="E46" s="1">
-        <v>1.91</v>
+        <v>1.54</v>
       </c>
       <c r="F46" s="1">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="G46" s="1">
         <v>38</v>
@@ -2003,12 +2466,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2029,24 +2492,24 @@
         <v>410</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>122</v>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D48" s="1">
         <v>20</v>
       </c>
       <c r="E48" s="1">
-        <v>1.54</v>
+        <v>1.91</v>
       </c>
       <c r="F48" s="1">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="G48" s="1">
         <v>38</v>
@@ -2055,24 +2518,24 @@
         <v>410</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D49" s="1">
         <v>20</v>
       </c>
       <c r="E49" s="1">
-        <v>2.23</v>
+        <v>1.54</v>
       </c>
       <c r="F49" s="1">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G49" s="1">
         <v>38</v>
@@ -2081,12 +2544,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>124</v>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2107,24 +2570,24 @@
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D51" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E51" s="1">
-        <v>1.6</v>
+        <v>2.23</v>
       </c>
       <c r="F51" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="G51" s="1">
         <v>38</v>
@@ -2133,24 +2596,24 @@
         <v>410</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D52" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E52" s="1">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="F52" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="G52" s="1">
         <v>38</v>
@@ -2159,47 +2622,50 @@
         <v>410</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D53" s="1">
-        <v>8.3000000000000007</v>
+        <v>20</v>
       </c>
       <c r="E53" s="1">
-        <v>0.56999999999999995</v>
+        <v>1.6</v>
       </c>
       <c r="F53" s="1">
-        <v>0.11</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G53" s="1">
+        <v>38</v>
+      </c>
+      <c r="H53" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B54" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D54" s="1">
         <v>20</v>
       </c>
       <c r="E54" s="1">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="F54" s="1">
-        <v>0.12</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G54" s="1">
         <v>38</v>
@@ -2208,44 +2674,41 @@
         <v>410</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D55" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G55" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="1">
         <v>20</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="G55" s="1">
-        <v>38</v>
-      </c>
-      <c r="H55" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="1">
-        <v>11</v>
       </c>
       <c r="E56" s="1">
         <v>1.54</v>
@@ -2256,16 +2719,16 @@
       <c r="G56" s="1">
         <v>38</v>
       </c>
-      <c r="I56" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H56" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>32</v>
@@ -2286,18 +2749,18 @@
         <v>410</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D58" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E58" s="1">
         <v>1.54</v>
@@ -2308,16 +2771,16 @@
       <c r="G58" s="1">
         <v>38</v>
       </c>
-      <c r="H58" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I58" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>32</v>
@@ -2338,12 +2801,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>32</v>
@@ -2364,12 +2827,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>32</v>
@@ -2390,12 +2853,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>32</v>
@@ -2416,64 +2879,70 @@
         <v>410</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D63" s="1">
-        <v>8.3000000000000007</v>
+        <v>20</v>
       </c>
       <c r="E63" s="1">
-        <v>0.56999999999999995</v>
+        <v>1.54</v>
       </c>
       <c r="F63" s="1">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G63" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="H63" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D64" s="1">
-        <v>8.3000000000000007</v>
+        <v>20</v>
       </c>
       <c r="E64" s="1">
-        <v>0.56999999999999995</v>
+        <v>1.54</v>
       </c>
       <c r="F64" s="1">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G64" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="H64" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D65" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E65" s="1">
         <v>1.54</v>
@@ -2484,66 +2953,213 @@
       <c r="G65" s="1">
         <v>38</v>
       </c>
-      <c r="I65" s="1">
+      <c r="H65" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G66" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G67" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="1">
+        <v>20</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G68" s="1">
+        <v>38</v>
+      </c>
+      <c r="H68" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="1">
+        <v>11</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G69" s="1">
+        <v>38</v>
+      </c>
+      <c r="I69" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="1">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G70" s="1">
+        <v>38</v>
+      </c>
+      <c r="I70" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D71" s="1">
         <v>11</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E71" s="1">
         <v>1.54</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F71" s="1">
         <v>0.12</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G71" s="1">
         <v>38</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I71" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="C72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="1">
         <v>20</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E72" s="1">
         <v>1.54</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F72" s="1">
         <v>0.12</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G72" s="1">
         <v>38</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H72" s="1">
         <v>410</v>
       </c>
     </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="1">
+        <v>11</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G73" s="1">
+        <v>38</v>
+      </c>
+      <c r="I73" s="1">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I67">
-    <sortCondition ref="A2:A67"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2553,16 +3169,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -2570,7 +3186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -2578,7 +3194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2586,7 +3202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -2594,7 +3210,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2602,7 +3218,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2610,7 +3226,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2621,4 +3237,2552 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446DEF65-5E77-4BAF-B17C-A7715D6429D1}">
+  <dimension ref="A1:F113"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="3">
+        <v>28.157197</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-82.757036999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="3">
+        <v>28.173974999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-82.722536000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="3">
+        <v>28.174032</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-82.723491999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="3">
+        <v>28.162289999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-82.710830000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="3">
+        <v>28.151558000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-82.696158999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="3">
+        <v>28.165811999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-82.697146000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="3">
+        <v>28.163824999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-82.740590999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="3">
+        <v>28.147479000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-82.764122999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="3">
+        <v>28.153013000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-82.765980999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="4">
+        <v>28.148797999999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-82.770308999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>28.116945000000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-82.765307000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>28.115624</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-82.764602999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>28.111719000000001</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-82.761505999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="3">
+        <v>28.140872000000002</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-82.639453000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="3">
+        <v>28.086324999999999</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-82.694147999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="3">
+        <v>28.076658999999999</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-82.697884999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="3">
+        <v>28.046462999999999</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-82.691727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>28.0456</v>
+      </c>
+      <c r="F19" s="3">
+        <v>-82.684650000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>28.050713999999999</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-82.694044000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="3">
+        <v>28.068168</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-82.722860999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>28.052875</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-82.709120999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>28.061199999999999</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-82.710400000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>28.068487999999999</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-82.768835999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3">
+        <v>28.033753999999998</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-82.780066000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="3">
+        <v>28.033784000000001</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-82.776065000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3">
+        <v>28.046779000000001</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-82.759876000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="3">
+        <v>28.04138</v>
+      </c>
+      <c r="F28" s="3">
+        <v>-82.753029999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>1550</v>
+      </c>
+      <c r="E29" s="3">
+        <v>28.005400000000002</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-82.7547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3">
+        <v>28.03445</v>
+      </c>
+      <c r="F30" s="3">
+        <v>-82.737899999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3">
+        <v>28.023250000000001</v>
+      </c>
+      <c r="F31" s="3">
+        <v>-82.740549999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3">
+        <v>28.040410000000001</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-82.746799999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="3">
+        <v>28.032423000000001</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-82.737782999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3">
+        <v>28.037299999999998</v>
+      </c>
+      <c r="F34" s="3">
+        <v>-82.703731000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="3">
+        <v>28.020367</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-82.689852999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3">
+        <v>28.012889000000001</v>
+      </c>
+      <c r="F36" s="3">
+        <v>-82.701791</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3">
+        <v>28.014890999999999</v>
+      </c>
+      <c r="F37" s="3">
+        <v>-82.698875999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3">
+        <v>28.014676000000001</v>
+      </c>
+      <c r="F38" s="3">
+        <v>-82.696267000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3">
+        <v>27.996171</v>
+      </c>
+      <c r="F39" s="3">
+        <v>-82.692380999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3">
+        <v>27.996813</v>
+      </c>
+      <c r="F40" s="3">
+        <v>-82.694027000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="3">
+        <v>28.002573000000002</v>
+      </c>
+      <c r="F41" s="3">
+        <v>-82.721708000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="3">
+        <v>27.979585</v>
+      </c>
+      <c r="F42" s="3">
+        <v>-82.695250000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="3">
+        <v>27.989871999999998</v>
+      </c>
+      <c r="F43" s="3">
+        <v>-82.747136999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="3">
+        <v>27.974701</v>
+      </c>
+      <c r="F44" s="3">
+        <v>-82.713548000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="3">
+        <v>27.974450999999998</v>
+      </c>
+      <c r="F45" s="3">
+        <v>-82.725444999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="3">
+        <v>27.992194000000001</v>
+      </c>
+      <c r="F46" s="3">
+        <v>-82.748092999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="3">
+        <v>27.990174</v>
+      </c>
+      <c r="F47" s="3">
+        <v>-82.783998999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="3">
+        <v>27.943531</v>
+      </c>
+      <c r="F48" s="3">
+        <v>-82.805969000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="3">
+        <v>27.940683</v>
+      </c>
+      <c r="F49" s="3">
+        <v>-82.801349000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="3">
+        <v>27.967907</v>
+      </c>
+      <c r="F50" s="3">
+        <v>-82.781784999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="3">
+        <v>27.971475000000002</v>
+      </c>
+      <c r="F51" s="3">
+        <v>-82.781530000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="3">
+        <v>27.928132999999999</v>
+      </c>
+      <c r="F52" s="3">
+        <v>-82.745982999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="3">
+        <v>27.935396999999998</v>
+      </c>
+      <c r="F53" s="3">
+        <v>-82.751176000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="3">
+        <v>27.938490000000002</v>
+      </c>
+      <c r="F54" s="3">
+        <v>-82.758813000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="3">
+        <v>27.950747</v>
+      </c>
+      <c r="F55" s="3">
+        <v>-82.754149999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="3">
+        <v>27.9407</v>
+      </c>
+      <c r="F56" s="3">
+        <v>-82.759795999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="3">
+        <v>27.938783000000001</v>
+      </c>
+      <c r="F57" s="3">
+        <v>-82.750726999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>216</v>
+      </c>
+      <c r="B58" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" s="3">
+        <v>27.927420000000001</v>
+      </c>
+      <c r="F58" s="3">
+        <v>-82.738349999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="3">
+        <v>27.927600000000002</v>
+      </c>
+      <c r="F59" s="3">
+        <v>-82.762150000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="3">
+        <v>27.94068</v>
+      </c>
+      <c r="F60" s="3">
+        <v>-82.750590000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="3">
+        <v>27.940999999999999</v>
+      </c>
+      <c r="F61" s="3">
+        <v>-82.742400000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="3">
+        <v>27.960999999999999</v>
+      </c>
+      <c r="F62" s="3">
+        <v>-82.759609999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="3">
+        <v>27.93121</v>
+      </c>
+      <c r="F63" s="3">
+        <v>-82.757800000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>223</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="3">
+        <v>27.923224999999999</v>
+      </c>
+      <c r="F64" s="3">
+        <v>-82.717813000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="3">
+        <v>27.917581999999999</v>
+      </c>
+      <c r="F65" s="3">
+        <v>-82.722548000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="3">
+        <v>27.911640999999999</v>
+      </c>
+      <c r="F66" s="3">
+        <v>-82.725682000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="3">
+        <v>27.911525999999999</v>
+      </c>
+      <c r="F67" s="3">
+        <v>-82.725611000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="3">
+        <v>27.915656999999999</v>
+      </c>
+      <c r="F68" s="3">
+        <v>-82.725143000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="3">
+        <v>27.914597000000001</v>
+      </c>
+      <c r="F69" s="3">
+        <v>-82.730187999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="3">
+        <v>27.913191000000001</v>
+      </c>
+      <c r="F70" s="3">
+        <v>-82.732553999999993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="3">
+        <v>27.908646000000001</v>
+      </c>
+      <c r="F71" s="3">
+        <v>-82.731842</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="3">
+        <v>27.91958</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-82.719750000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>232</v>
+      </c>
+      <c r="B73" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="3">
+        <v>27.884336000000001</v>
+      </c>
+      <c r="F73" s="3">
+        <v>-82.667529000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>233</v>
+      </c>
+      <c r="B74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="3">
+        <v>27.872796999999998</v>
+      </c>
+      <c r="F74" s="3">
+        <v>-82.651881000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="3">
+        <v>27.907501</v>
+      </c>
+      <c r="F75" s="3">
+        <v>-82.676052999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="3">
+        <v>27.839032</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-82.752199000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="3">
+        <v>27.911902000000001</v>
+      </c>
+      <c r="F77" s="3">
+        <v>-82.700351999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="3">
+        <v>27.882256999999999</v>
+      </c>
+      <c r="F78" s="3">
+        <v>-82.715112000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>238</v>
+      </c>
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="3">
+        <v>27.871178</v>
+      </c>
+      <c r="F79" s="3">
+        <v>-82.729363000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>239</v>
+      </c>
+      <c r="B80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="3">
+        <v>27.894496</v>
+      </c>
+      <c r="F80" s="3">
+        <v>-82.776813000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="3">
+        <v>27.839531999999998</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-82.771511000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>241</v>
+      </c>
+      <c r="B82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="3">
+        <v>27.850125999999999</v>
+      </c>
+      <c r="F82" s="3">
+        <v>-82.772942999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="3">
+        <v>27.90156</v>
+      </c>
+      <c r="F83" s="3">
+        <v>-82.772739999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" t="s">
+        <v>244</v>
+      </c>
+      <c r="E84" s="3">
+        <v>27.903523</v>
+      </c>
+      <c r="F84" s="3">
+        <v>-82.822490999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>245</v>
+      </c>
+      <c r="B85" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" t="s">
+        <v>247</v>
+      </c>
+      <c r="E85" s="3">
+        <v>27.892914999999999</v>
+      </c>
+      <c r="F85" s="3">
+        <v>-82.807484000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="3">
+        <v>27.891048000000001</v>
+      </c>
+      <c r="F86" s="3">
+        <v>-82.824898000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>249</v>
+      </c>
+      <c r="B87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="3">
+        <v>27.915959999999998</v>
+      </c>
+      <c r="F87" s="3">
+        <v>-82.808897000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>250</v>
+      </c>
+      <c r="B88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" s="3">
+        <v>27.8797999999999</v>
+      </c>
+      <c r="F88" s="3">
+        <v>-82.809510000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>251</v>
+      </c>
+      <c r="B89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="3">
+        <v>27.912120000000002</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-82.813869999999994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>252</v>
+      </c>
+      <c r="B90" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90" s="3">
+        <v>27.894953000000001</v>
+      </c>
+      <c r="F90" s="3">
+        <v>-82.808066999999696</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>253</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" t="s">
+        <v>244</v>
+      </c>
+      <c r="E91" s="3">
+        <v>27.90765</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-82.816580000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>254</v>
+      </c>
+      <c r="B92" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" s="3">
+        <v>27.913245</v>
+      </c>
+      <c r="F92" s="3">
+        <v>-82.804545000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="3">
+        <v>27.849830000000001</v>
+      </c>
+      <c r="F93" s="3">
+        <v>-82.72242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>257</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" t="s">
+        <v>258</v>
+      </c>
+      <c r="E94" s="3">
+        <v>27.808412000000001</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-82.616264999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>259</v>
+      </c>
+      <c r="B95" t="s">
+        <v>260</v>
+      </c>
+      <c r="C95" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="3">
+        <v>27.840630000000001</v>
+      </c>
+      <c r="F95" s="3">
+        <v>-82.728945999999993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="3">
+        <v>27.821999999999999</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-82.736000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>262</v>
+      </c>
+      <c r="B97" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="3">
+        <v>27.824248000000001</v>
+      </c>
+      <c r="F97" s="3">
+        <v>-82.731661000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>263</v>
+      </c>
+      <c r="B98" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="3">
+        <v>27.809920000000002</v>
+      </c>
+      <c r="F98" s="3">
+        <v>-82.720528000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>264</v>
+      </c>
+      <c r="B99" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="3">
+        <v>27.813779</v>
+      </c>
+      <c r="F99" s="3">
+        <v>-82.695728000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>265</v>
+      </c>
+      <c r="B100" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="3">
+        <v>27.803728</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-82.724119999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>266</v>
+      </c>
+      <c r="B101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="3">
+        <v>27.809809999999999</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-82.732685000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>267</v>
+      </c>
+      <c r="B102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="3">
+        <v>27.816203000000002</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-82.683394000000007</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>268</v>
+      </c>
+      <c r="B103" t="s">
+        <v>269</v>
+      </c>
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" t="s">
+        <v>270</v>
+      </c>
+      <c r="E103" s="3">
+        <v>27.757975999999999</v>
+      </c>
+      <c r="F103" s="3">
+        <v>-82.731505999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>271</v>
+      </c>
+      <c r="B104" t="s">
+        <v>272</v>
+      </c>
+      <c r="C104" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" t="s">
+        <v>273</v>
+      </c>
+      <c r="E104" s="3">
+        <v>27.764379999999999</v>
+      </c>
+      <c r="F104" s="3">
+        <v>-82.720281</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>274</v>
+      </c>
+      <c r="B105" t="s">
+        <v>269</v>
+      </c>
+      <c r="C105" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" t="s">
+        <v>270</v>
+      </c>
+      <c r="E105" s="3">
+        <v>27.760207000000001</v>
+      </c>
+      <c r="F105" s="3">
+        <v>-82.729787000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>275</v>
+      </c>
+      <c r="B106" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" t="s">
+        <v>276</v>
+      </c>
+      <c r="E106" s="3">
+        <v>27.760513</v>
+      </c>
+      <c r="F106" s="3">
+        <v>-82.642373000000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>277</v>
+      </c>
+      <c r="B107" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" t="s">
+        <v>278</v>
+      </c>
+      <c r="E107" s="3">
+        <v>27.792266000000001</v>
+      </c>
+      <c r="F107" s="3">
+        <v>-82.626583999999994</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>279</v>
+      </c>
+      <c r="B108" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="3">
+        <v>27.7593</v>
+      </c>
+      <c r="F108" s="3">
+        <v>-82.681276999999994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>282</v>
+      </c>
+      <c r="B109" t="s">
+        <v>281</v>
+      </c>
+      <c r="C109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" t="s">
+        <v>280</v>
+      </c>
+      <c r="E109" s="3">
+        <v>27.748215999999999</v>
+      </c>
+      <c r="F109" s="3">
+        <v>-82.688475999999994</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>283</v>
+      </c>
+      <c r="B110" t="s">
+        <v>284</v>
+      </c>
+      <c r="C110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D110" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="3">
+        <v>27.711438000000001</v>
+      </c>
+      <c r="F110" s="3">
+        <v>-82.684027</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>285</v>
+      </c>
+      <c r="B111" t="s">
+        <v>139</v>
+      </c>
+      <c r="C111" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" t="s">
+        <v>33</v>
+      </c>
+      <c r="E111" s="3">
+        <v>27.717371</v>
+      </c>
+      <c r="F111" s="3">
+        <v>-82.642402000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>286</v>
+      </c>
+      <c r="B112" t="s">
+        <v>287</v>
+      </c>
+      <c r="C112" t="s">
+        <v>288</v>
+      </c>
+      <c r="D112" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" s="3">
+        <v>28.106107999999999</v>
+      </c>
+      <c r="F112" s="3">
+        <v>-82.772577999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>289</v>
+      </c>
+      <c r="B113" t="s">
+        <v>287</v>
+      </c>
+      <c r="C113" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" t="s">
+        <v>288</v>
+      </c>
+      <c r="E113" s="3">
+        <v>28.106427</v>
+      </c>
+      <c r="F113" s="3">
+        <v>-82.773554000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B730D8DC4DFB374C886B31D158660B04" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b7ff6c03879b1f266d5ea38ee21f191f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="20a86c8e-58bd-487e-986c-19c6170a5cfd" xmlns:ns3="ebcefb84-3943-4c67-86e4-95e0d5522177" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ad91feefbbf9c03787a59590c558b3e" ns2:_="" ns3:_="">
+    <xsd:import namespace="20a86c8e-58bd-487e-986c-19c6170a5cfd"/>
+    <xsd:import namespace="ebcefb84-3943-4c67-86e4-95e0d5522177"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="20a86c8e-58bd-487e-986c-19c6170a5cfd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="9fdb58af-1696-4d9b-8664-baec0edd814a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ebcefb84-3943-4c67-86e4-95e0d5522177" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{a0576301-0b76-4b11-bff2-02dbad1dc6d2}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ebcefb84-3943-4c67-86e4-95e0d5522177">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ebcefb84-3943-4c67-86e4-95e0d5522177" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="20a86c8e-58bd-487e-986c-19c6170a5cfd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45BDAAEB-4F8C-4301-B90B-EF9ABD213FC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA574A5-6CC6-4F56-9F42-D8DECEC2B26B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="20a86c8e-58bd-487e-986c-19c6170a5cfd"/>
+    <ds:schemaRef ds:uri="ebcefb84-3943-4c67-86e4-95e0d5522177"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67C3CBFC-B408-4AC6-998F-0F89C93E332F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ebcefb84-3943-4c67-86e4-95e0d5522177"/>
+    <ds:schemaRef ds:uri="20a86c8e-58bd-487e-986c-19c6170a5cfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/WBID_criteria.xlsx
+++ b/Data/WBID_criteria.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pinellasgov.sharepoint.com/sites/BCC-PW-ENVMT/Monitoring and Assessment/R/water_quality_dashboard/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="13_ncr:1_{7A309D96-916D-4D0A-99DA-2AF397C66AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1C5E28A-D0A5-4A3F-BC98-970BDB35D7FD}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:1_{7A309D96-916D-4D0A-99DA-2AF397C66AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8CB9E93-42C5-485D-8794-B41BCA49131D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE13FCFD-69C3-482F-A9D3-58396836E9E2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE13FCFD-69C3-482F-A9D3-58396836E9E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
     <sheet name="Units" sheetId="5" r:id="rId2"/>
     <sheet name="Sites" sheetId="6" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Criteria!$A$1:$I$74</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="290">
   <si>
     <t>WBID</t>
   </si>
@@ -196,9 +199,6 @@
     <t>1558N</t>
   </si>
   <si>
-    <t>COASTAL</t>
-  </si>
-  <si>
     <t>1558B</t>
   </si>
   <si>
@@ -908,6 +908,9 @@
   </si>
   <si>
     <t>53-06</t>
+  </si>
+  <si>
+    <t>MARINE</t>
   </si>
 </sst>
 </file>
@@ -1286,11 +1289,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEB8270-E891-48E2-9417-9A696D4AB26E}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:I28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1311,28 +1312,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1340,7 +1341,7 @@
         <v>1440</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>35</v>
@@ -1366,7 +1367,7 @@
         <v>1474</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1392,7 +1393,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1418,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -1444,10 +1445,10 @@
         <v>1528</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D6" s="1">
         <v>7.6</v>
@@ -1467,7 +1468,7 @@
         <v>1529</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1493,7 +1494,7 @@
         <v>1530</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -1519,7 +1520,7 @@
         <v>1550</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1545,7 +1546,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
@@ -1571,7 +1572,7 @@
         <v>1569</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -1597,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1623,7 +1624,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
@@ -1649,7 +1650,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1675,7 +1676,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>35</v>
@@ -1701,7 +1702,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1727,7 +1728,7 @@
         <v>1633</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>35</v>
@@ -1753,7 +1754,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
@@ -1779,7 +1780,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1805,10 +1806,10 @@
         <v>1661</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D20" s="1">
         <v>8.5</v>
@@ -1828,7 +1829,7 @@
         <v>1683</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>35</v>
@@ -1854,7 +1855,7 @@
         <v>1696</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -1880,7 +1881,7 @@
         <v>1700</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>35</v>
@@ -1906,10 +1907,10 @@
         <v>8045</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D24" s="1">
         <v>3.1</v>
@@ -1926,10 +1927,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>35</v>
@@ -1955,7 +1956,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>40</v>
@@ -1981,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2004,10 +2005,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
@@ -2033,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2059,10 +2060,10 @@
         <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D30" s="1">
         <v>8.3000000000000007</v>
@@ -2082,10 +2083,10 @@
         <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D31" s="1">
         <v>5.4</v>
@@ -2105,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2131,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2157,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2183,7 +2184,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2209,7 +2210,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2232,13 +2233,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D37" s="1">
         <v>9.3000000000000007</v>
@@ -2255,13 +2256,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D38" s="1">
         <v>9.3000000000000007</v>
@@ -2281,10 +2282,10 @@
         <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D39" s="1">
         <v>9.3000000000000007</v>
@@ -2304,10 +2305,10 @@
         <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D40" s="1">
         <v>9.3000000000000007</v>
@@ -2327,10 +2328,10 @@
         <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D41" s="1">
         <v>9.3000000000000007</v>
@@ -2347,13 +2348,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D42" s="1">
         <v>9.3000000000000007</v>
@@ -2370,13 +2371,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D43" s="1">
         <v>9.3000000000000007</v>
@@ -2396,10 +2397,10 @@
         <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D44" s="1">
         <v>6.3</v>
@@ -2419,7 +2420,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2445,7 +2446,7 @@
         <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2471,7 +2472,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2497,7 +2498,7 @@
         <v>38</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>40</v>
@@ -2523,7 +2524,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2549,7 +2550,7 @@
         <v>28</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2575,7 +2576,7 @@
         <v>36</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>40</v>
@@ -2601,7 +2602,7 @@
         <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2624,22 +2625,22 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D53" s="1">
         <v>20</v>
       </c>
       <c r="E53" s="1">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="F53" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="G53" s="1">
         <v>38</v>
@@ -2650,10 +2651,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>40</v>
@@ -2676,59 +2677,59 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D55" s="1">
-        <v>8.3000000000000007</v>
+        <v>20</v>
       </c>
       <c r="E55" s="1">
-        <v>0.56999999999999995</v>
+        <v>1.6</v>
       </c>
       <c r="F55" s="1">
-        <v>0.11</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G55" s="1">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="H55" s="1">
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="D56" s="1">
-        <v>20</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E56" s="1">
-        <v>1.54</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F56" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G56" s="1">
-        <v>38</v>
-      </c>
-      <c r="H56" s="1">
-        <v>410</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>32</v>
@@ -2751,16 +2752,16 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D58" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E58" s="1">
         <v>1.54</v>
@@ -2771,22 +2772,22 @@
       <c r="G58" s="1">
         <v>38</v>
       </c>
-      <c r="I58" s="1">
-        <v>130</v>
+      <c r="H58" s="1">
+        <v>410</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D59" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E59" s="1">
         <v>1.54</v>
@@ -2797,16 +2798,16 @@
       <c r="G59" s="1">
         <v>38</v>
       </c>
-      <c r="H59" s="1">
-        <v>410</v>
+      <c r="I59" s="1">
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>32</v>
@@ -2829,10 +2830,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>32</v>
@@ -2855,10 +2856,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>32</v>
@@ -2881,10 +2882,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>32</v>
@@ -2907,10 +2908,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>32</v>
@@ -2933,10 +2934,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>32</v>
@@ -2959,36 +2960,39 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D66" s="1">
-        <v>8.3000000000000007</v>
+        <v>20</v>
       </c>
       <c r="E66" s="1">
-        <v>0.56999999999999995</v>
+        <v>1.54</v>
       </c>
       <c r="F66" s="1">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G66" s="1">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="H66" s="1">
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D67" s="1">
         <v>8.3000000000000007</v>
@@ -3005,42 +3009,39 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>273</v>
+        <v>50</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>272</v>
+        <v>137</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="D68" s="1">
-        <v>20</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E68" s="1">
-        <v>1.54</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F68" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G68" s="1">
-        <v>38</v>
-      </c>
-      <c r="H68" s="1">
-        <v>410</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>35</v>
+        <v>272</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D69" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E69" s="1">
         <v>1.54</v>
@@ -3051,18 +3052,18 @@
       <c r="G69" s="1">
         <v>38</v>
       </c>
-      <c r="I69" s="1">
-        <v>130</v>
+      <c r="H69" s="1">
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D70" s="1">
@@ -3083,10 +3084,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>35</v>
@@ -3109,16 +3110,16 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D72" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E72" s="1">
         <v>1.54</v>
@@ -3129,22 +3130,22 @@
       <c r="G72" s="1">
         <v>38</v>
       </c>
-      <c r="H72" s="1">
-        <v>410</v>
+      <c r="I72" s="1">
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D73" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E73" s="1">
         <v>1.54</v>
@@ -3155,7 +3156,33 @@
       <c r="G73" s="1">
         <v>38</v>
       </c>
-      <c r="I73" s="1">
+      <c r="H73" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="1">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G74" s="1">
+        <v>38</v>
+      </c>
+      <c r="I74" s="1">
         <v>130</v>
       </c>
     </row>
@@ -3180,50 +3207,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3231,7 +3258,7 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3243,9 +3270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446DEF65-5E77-4BAF-B17C-A7715D6429D1}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3259,10 +3284,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
         <v>39</v>
@@ -3271,24 +3296,24 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" t="s">
         <v>146</v>
-      </c>
-      <c r="F1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" s="3">
         <v>28.157197</v>
@@ -3299,16 +3324,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" s="3">
         <v>28.173974999999999</v>
@@ -3319,16 +3344,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="3">
         <v>28.174032</v>
@@ -3339,16 +3364,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>152</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>153</v>
       </c>
       <c r="E5" s="3">
         <v>28.162289999999999</v>
@@ -3359,16 +3384,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="3">
         <v>28.151558000000001</v>
@@ -3379,16 +3404,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="3">
         <v>28.165811999999999</v>
@@ -3399,16 +3424,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" s="3">
         <v>28.163824999999999</v>
@@ -3419,16 +3444,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" t="s">
         <v>157</v>
-      </c>
-      <c r="B9" t="s">
-        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" s="3">
         <v>28.147479000000001</v>
@@ -3439,16 +3464,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="3">
         <v>28.153013000000001</v>
@@ -3459,16 +3484,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="4">
         <v>28.148797999999999</v>
@@ -3479,10 +3504,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
         <v>162</v>
-      </c>
-      <c r="B12" t="s">
-        <v>163</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -3499,10 +3524,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -3519,10 +3544,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3539,16 +3564,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>166</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>167</v>
       </c>
       <c r="E15" s="3">
         <v>28.140872000000002</v>
@@ -3559,16 +3584,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E16" s="3">
         <v>28.086324999999999</v>
@@ -3579,16 +3604,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17" s="3">
         <v>28.076658999999999</v>
@@ -3599,16 +3624,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" s="3">
         <v>28.046462999999999</v>
@@ -3619,10 +3644,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -3639,10 +3664,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -3659,16 +3684,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
         <v>174</v>
-      </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>175</v>
       </c>
       <c r="E21" s="3">
         <v>28.068168</v>
@@ -3679,10 +3704,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -3699,10 +3724,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -3719,10 +3744,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -3739,10 +3764,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -3759,10 +3784,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
@@ -3779,10 +3804,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
@@ -3799,16 +3824,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
         <v>182</v>
-      </c>
-      <c r="B28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" t="s">
-        <v>183</v>
       </c>
       <c r="E28" s="3">
         <v>28.04138</v>
@@ -3819,10 +3844,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -3839,10 +3864,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -3859,10 +3884,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -3879,10 +3904,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -3899,10 +3924,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
@@ -3919,10 +3944,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -3939,16 +3964,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" t="s">
         <v>190</v>
-      </c>
-      <c r="B35" t="s">
-        <v>191</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E35" s="3">
         <v>28.020367</v>
@@ -3959,10 +3984,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
@@ -3979,10 +4004,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
         <v>32</v>
@@ -3999,10 +4024,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
         <v>32</v>
@@ -4019,10 +4044,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
         <v>32</v>
@@ -4039,10 +4064,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
         <v>32</v>
@@ -4059,10 +4084,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
         <v>40</v>
@@ -4079,10 +4104,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
         <v>40</v>
@@ -4099,10 +4124,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
         <v>32</v>
@@ -4119,10 +4144,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>32</v>
@@ -4139,10 +4164,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
         <v>32</v>
@@ -4159,10 +4184,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
         <v>32</v>
@@ -4179,10 +4204,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
         <v>32</v>
@@ -4199,10 +4224,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
         <v>32</v>
@@ -4219,10 +4244,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
         <v>32</v>
@@ -4239,10 +4264,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
         <v>32</v>
@@ -4259,10 +4284,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
         <v>32</v>
@@ -4279,10 +4304,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
         <v>35</v>
@@ -4299,10 +4324,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
@@ -4319,10 +4344,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
         <v>35</v>
@@ -4339,10 +4364,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
         <v>32</v>
@@ -4359,10 +4384,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
         <v>32</v>
@@ -4379,10 +4404,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
         <v>32</v>
@@ -4399,16 +4424,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" t="s">
         <v>216</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" t="s">
         <v>217</v>
-      </c>
-      <c r="C58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" t="s">
-        <v>218</v>
       </c>
       <c r="E58" s="3">
         <v>27.927420000000001</v>
@@ -4419,10 +4444,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
         <v>32</v>
@@ -4439,10 +4464,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C60" t="s">
         <v>32</v>
@@ -4459,10 +4484,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
         <v>32</v>
@@ -4479,10 +4504,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
         <v>32</v>
@@ -4499,10 +4524,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
@@ -4519,10 +4544,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
         <v>35</v>
@@ -4539,10 +4564,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
         <v>32</v>
@@ -4559,10 +4584,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
         <v>32</v>
@@ -4579,10 +4604,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
         <v>32</v>
@@ -4599,10 +4624,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
         <v>32</v>
@@ -4619,10 +4644,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
         <v>32</v>
@@ -4639,10 +4664,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
         <v>32</v>
@@ -4659,10 +4684,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
         <v>32</v>
@@ -4679,10 +4704,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
         <v>32</v>
@@ -4699,10 +4724,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
         <v>32</v>
@@ -4719,10 +4744,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
@@ -4739,10 +4764,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C75" t="s">
         <v>32</v>
@@ -4759,10 +4784,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
         <v>35</v>
@@ -4779,10 +4804,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
         <v>35</v>
@@ -4799,10 +4824,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
         <v>35</v>
@@ -4819,10 +4844,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
         <v>35</v>
@@ -4839,10 +4864,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s">
         <v>32</v>
@@ -4859,10 +4884,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
@@ -4879,10 +4904,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
@@ -4899,10 +4924,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C83" t="s">
         <v>32</v>
@@ -4919,16 +4944,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
         <v>35</v>
       </c>
       <c r="D84" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E84" s="3">
         <v>27.903523</v>
@@ -4939,16 +4964,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85" t="s">
         <v>245</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" t="s">
         <v>246</v>
-      </c>
-      <c r="C85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D85" t="s">
-        <v>247</v>
       </c>
       <c r="E85" s="3">
         <v>27.892914999999999</v>
@@ -4959,10 +4984,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
         <v>32</v>
@@ -4979,10 +5004,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C87" t="s">
         <v>32</v>
@@ -4999,16 +5024,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C88" t="s">
         <v>32</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E88" s="3">
         <v>27.8797999999999</v>
@@ -5019,10 +5044,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C89" t="s">
         <v>32</v>
@@ -5039,16 +5064,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
         <v>32</v>
       </c>
       <c r="D90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E90" s="3">
         <v>27.894953000000001</v>
@@ -5059,16 +5084,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
         <v>35</v>
       </c>
       <c r="D91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E91" s="3">
         <v>27.90765</v>
@@ -5079,10 +5104,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
         <v>32</v>
@@ -5099,10 +5124,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>254</v>
+      </c>
+      <c r="B93" t="s">
         <v>255</v>
-      </c>
-      <c r="B93" t="s">
-        <v>256</v>
       </c>
       <c r="C93" t="s">
         <v>32</v>
@@ -5119,16 +5144,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
         <v>35</v>
       </c>
       <c r="D94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E94" s="3">
         <v>27.808412000000001</v>
@@ -5139,10 +5164,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>258</v>
+      </c>
+      <c r="B95" t="s">
         <v>259</v>
-      </c>
-      <c r="B95" t="s">
-        <v>260</v>
       </c>
       <c r="C95" t="s">
         <v>32</v>
@@ -5159,10 +5184,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s">
         <v>32</v>
@@ -5179,10 +5204,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C97" t="s">
         <v>32</v>
@@ -5199,10 +5224,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C98" t="s">
         <v>32</v>
@@ -5219,10 +5244,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C99" t="s">
         <v>32</v>
@@ -5239,10 +5264,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" t="s">
         <v>32</v>
@@ -5259,10 +5284,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C101" t="s">
         <v>32</v>
@@ -5279,10 +5304,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102" t="s">
         <v>32</v>
@@ -5299,16 +5324,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>267</v>
+      </c>
+      <c r="B103" t="s">
         <v>268</v>
-      </c>
-      <c r="B103" t="s">
-        <v>269</v>
       </c>
       <c r="C103" t="s">
         <v>35</v>
       </c>
       <c r="D103" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E103" s="3">
         <v>27.757975999999999</v>
@@ -5319,16 +5344,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" t="s">
         <v>271</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" t="s">
         <v>272</v>
-      </c>
-      <c r="C104" t="s">
-        <v>32</v>
-      </c>
-      <c r="D104" t="s">
-        <v>273</v>
       </c>
       <c r="E104" s="3">
         <v>27.764379999999999</v>
@@ -5339,16 +5364,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B105" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C105" t="s">
         <v>35</v>
       </c>
       <c r="D105" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E105" s="3">
         <v>27.760207000000001</v>
@@ -5359,16 +5384,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>274</v>
+      </c>
+      <c r="B106" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" t="s">
         <v>275</v>
-      </c>
-      <c r="B106" t="s">
-        <v>96</v>
-      </c>
-      <c r="C106" t="s">
-        <v>32</v>
-      </c>
-      <c r="D106" t="s">
-        <v>276</v>
       </c>
       <c r="E106" s="3">
         <v>27.760513</v>
@@ -5379,16 +5404,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C107" t="s">
         <v>35</v>
       </c>
       <c r="D107" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E107" s="3">
         <v>27.792266000000001</v>
@@ -5399,10 +5424,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C108" t="s">
         <v>32</v>
@@ -5419,16 +5444,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B109" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C109" t="s">
         <v>35</v>
       </c>
       <c r="D109" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E109" s="3">
         <v>27.748215999999999</v>
@@ -5439,10 +5464,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>282</v>
+      </c>
+      <c r="B110" t="s">
         <v>283</v>
-      </c>
-      <c r="B110" t="s">
-        <v>284</v>
       </c>
       <c r="C110" t="s">
         <v>35</v>
@@ -5459,10 +5484,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B111" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C111" t="s">
         <v>35</v>
@@ -5479,16 +5504,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>285</v>
+      </c>
+      <c r="B112" t="s">
         <v>286</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>35</v>
+      </c>
+      <c r="D112" t="s">
         <v>287</v>
-      </c>
-      <c r="C112" t="s">
-        <v>288</v>
-      </c>
-      <c r="D112" t="s">
-        <v>35</v>
       </c>
       <c r="E112" s="3">
         <v>28.106107999999999</v>
@@ -5499,16 +5524,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B113" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C113" t="s">
         <v>35</v>
       </c>
       <c r="D113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E113" s="3">
         <v>28.106427</v>

--- a/Data/WBID_criteria.xlsx
+++ b/Data/WBID_criteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pinellasgov.sharepoint.com/sites/BCC-PW-ENVMT/Monitoring and Assessment/R/water_quality_dashboard/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pinellasgov.sharepoint.com/sites/BCC-PW-ENVMT/Monitoring and Assessment/R/water_quality_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:1_{7A309D96-916D-4D0A-99DA-2AF397C66AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8CB9E93-42C5-485D-8794-B41BCA49131D}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{7A309D96-916D-4D0A-99DA-2AF397C66AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28538134-16A2-4545-ADB8-D30C4AFCB236}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE13FCFD-69C3-482F-A9D3-58396836E9E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{BE13FCFD-69C3-482F-A9D3-58396836E9E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -986,10 +986,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1291,23 +1287,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEB8270-E891-48E2-9417-9A696D4AB26E}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" activeCellId="1" sqref="A41:XFD41 A45:XFD45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1336,18 +1335,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1440</v>
+        <v>1474</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>1.54</v>
@@ -1358,16 +1357,16 @@
       <c r="G2" s="1">
         <v>38</v>
       </c>
-      <c r="I2" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1388,12 +1387,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1475</v>
+        <v>1529</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1414,18 +1413,18 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1550</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1">
         <v>1.54</v>
@@ -1436,39 +1435,42 @@
       <c r="G5" s="1">
         <v>38</v>
       </c>
-      <c r="I5" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1528</v>
+      <c r="H5" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>7.6</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>0.57999999999999996</v>
+        <v>1.54</v>
       </c>
       <c r="F6" s="1">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="G6" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1529</v>
+        <v>38</v>
+      </c>
+      <c r="H6" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1489,18 +1491,18 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1530</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>1.54</v>
@@ -1511,16 +1513,16 @@
       <c r="G8" s="1">
         <v>38</v>
       </c>
-      <c r="I8" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1550</v>
+      <c r="H8" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1541,18 +1543,18 @@
         <v>410</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1696</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1">
         <v>1.54</v>
@@ -1563,22 +1565,22 @@
       <c r="G10" s="1">
         <v>38</v>
       </c>
-      <c r="I10" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1569</v>
+      <c r="H10" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1">
         <v>1.54</v>
@@ -1589,16 +1591,16 @@
       <c r="G11" s="1">
         <v>38</v>
       </c>
-      <c r="I11" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1619,18 +1621,18 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
         <v>1.54</v>
@@ -1641,16 +1643,16 @@
       <c r="G13" s="1">
         <v>38</v>
       </c>
-      <c r="I13" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1671,18 +1673,18 @@
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1">
         <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1">
-        <v>11</v>
       </c>
       <c r="E15" s="1">
         <v>1.54</v>
@@ -1693,16 +1695,16 @@
       <c r="G15" s="1">
         <v>38</v>
       </c>
-      <c r="I15" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1723,18 +1725,18 @@
         <v>410</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1633</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1">
         <v>1.54</v>
@@ -1745,22 +1747,22 @@
       <c r="G17" s="1">
         <v>38</v>
       </c>
-      <c r="I17" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1">
         <v>1.54</v>
@@ -1771,16 +1773,16 @@
       <c r="G18" s="1">
         <v>38</v>
       </c>
-      <c r="I18" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1801,41 +1803,44 @@
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1661</v>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1">
-        <v>8.5</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1">
-        <v>0.87</v>
+        <v>1.54</v>
       </c>
       <c r="F20" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="G20" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>1683</v>
+        <v>38</v>
+      </c>
+      <c r="H20" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1">
         <v>1.54</v>
@@ -1846,16 +1851,16 @@
       <c r="G21" s="1">
         <v>38</v>
       </c>
-      <c r="I21" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>1696</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>95</v>
+      <c r="H21" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -1876,18 +1881,18 @@
         <v>410</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>1700</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1">
         <v>1.54</v>
@@ -1898,45 +1903,48 @@
       <c r="G23" s="1">
         <v>38</v>
       </c>
-      <c r="I23" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>8045</v>
+      <c r="H23" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1">
-        <v>3.1</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1">
-        <v>0.66</v>
+        <v>1.54</v>
       </c>
       <c r="F24" s="1">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="G24" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H24" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" t="s">
-        <v>157</v>
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1">
         <v>1.54</v>
@@ -1947,28 +1955,28 @@
       <c r="G25" s="1">
         <v>38</v>
       </c>
-      <c r="I25" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1">
         <v>20</v>
       </c>
       <c r="E26" s="1">
-        <v>2.23</v>
+        <v>1.54</v>
       </c>
       <c r="F26" s="1">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G26" s="1">
         <v>38</v>
@@ -1977,12 +1985,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2003,18 +2011,18 @@
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>287</v>
+        <v>142</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>286</v>
+        <v>130</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E28" s="1">
         <v>1.54</v>
@@ -2025,16 +2033,16 @@
       <c r="G28" s="1">
         <v>38</v>
       </c>
-      <c r="I28" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2055,58 +2063,64 @@
         <v>410</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1">
-        <v>8.3000000000000007</v>
+        <v>20</v>
       </c>
       <c r="E30" s="1">
-        <v>0.56999999999999995</v>
+        <v>1.54</v>
       </c>
       <c r="F30" s="1">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G30" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H30" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="D31" s="1">
-        <v>5.4</v>
+        <v>20</v>
       </c>
       <c r="E31" s="1">
-        <v>0.61</v>
+        <v>1.54</v>
       </c>
       <c r="F31" s="1">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="G31" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H31" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2127,12 +2141,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2153,12 +2167,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2179,12 +2193,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2205,24 +2219,24 @@
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D36" s="1">
         <v>20</v>
       </c>
       <c r="E36" s="1">
-        <v>1.54</v>
+        <v>2.23</v>
       </c>
       <c r="F36" s="1">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="G36" s="1">
         <v>38</v>
@@ -2231,482 +2245,461 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="D37" s="1">
-        <v>9.3000000000000007</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1">
-        <v>0.93</v>
+        <v>1.91</v>
       </c>
       <c r="F37" s="1">
-        <v>0.31</v>
+        <v>0.09</v>
       </c>
       <c r="G37" s="1">
+        <v>38</v>
+      </c>
+      <c r="H37" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="1">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G38" s="1">
+        <v>38</v>
+      </c>
+      <c r="H38" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F39" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>38</v>
+      </c>
+      <c r="H39" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D38" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="G38" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D39" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="G39" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="B40" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1">
-        <v>9.3000000000000007</v>
+        <v>20</v>
       </c>
       <c r="E40" s="1">
-        <v>0.93</v>
+        <v>1.6</v>
       </c>
       <c r="F40" s="1">
-        <v>0.31</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G40" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="H40" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>1528</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>289</v>
       </c>
       <c r="D41" s="1">
-        <v>9.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="E41" s="1">
-        <v>0.93</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F41" s="1">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
       <c r="G41" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>73</v>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>1661</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>289</v>
       </c>
       <c r="D42" s="1">
-        <v>9.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="E42" s="1">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="F42" s="1">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G42" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>54</v>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>8045</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>289</v>
       </c>
       <c r="D43" s="1">
-        <v>9.3000000000000007</v>
+        <v>3.1</v>
       </c>
       <c r="E43" s="1">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
       <c r="F43" s="1">
-        <v>0.31</v>
+        <v>0.05</v>
       </c>
       <c r="G43" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>289</v>
       </c>
       <c r="D44" s="1">
-        <v>6.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E44" s="1">
-        <v>0.54</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F44" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G44" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="D45" s="1">
-        <v>20</v>
+        <v>5.4</v>
       </c>
       <c r="E45" s="1">
-        <v>1.54</v>
+        <v>0.61</v>
       </c>
       <c r="F45" s="1">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="G45" s="1">
-        <v>38</v>
-      </c>
-      <c r="H45" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="D46" s="1">
-        <v>20</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E46" s="1">
-        <v>1.54</v>
+        <v>0.93</v>
       </c>
       <c r="F46" s="1">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="G46" s="1">
-        <v>38</v>
-      </c>
-      <c r="H46" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="D47" s="1">
-        <v>20</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E47" s="1">
-        <v>1.54</v>
+        <v>0.93</v>
       </c>
       <c r="F47" s="1">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="G47" s="1">
-        <v>38</v>
-      </c>
-      <c r="H47" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="D48" s="1">
-        <v>20</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E48" s="1">
-        <v>1.91</v>
+        <v>0.93</v>
       </c>
       <c r="F48" s="1">
-        <v>0.09</v>
+        <v>0.31</v>
       </c>
       <c r="G48" s="1">
-        <v>38</v>
-      </c>
-      <c r="H48" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="D49" s="1">
-        <v>20</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E49" s="1">
-        <v>1.54</v>
+        <v>0.93</v>
       </c>
       <c r="F49" s="1">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="G49" s="1">
-        <v>38</v>
-      </c>
-      <c r="H49" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>121</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="D50" s="1">
-        <v>20</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E50" s="1">
-        <v>1.54</v>
+        <v>0.93</v>
       </c>
       <c r="F50" s="1">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="G50" s="1">
-        <v>38</v>
-      </c>
-      <c r="H50" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="D51" s="1">
-        <v>20</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E51" s="1">
-        <v>2.23</v>
+        <v>0.93</v>
       </c>
       <c r="F51" s="1">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="G51" s="1">
-        <v>38</v>
-      </c>
-      <c r="H51" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="D52" s="1">
-        <v>20</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E52" s="1">
-        <v>1.54</v>
+        <v>0.93</v>
       </c>
       <c r="F52" s="1">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="G52" s="1">
-        <v>38</v>
-      </c>
-      <c r="H52" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>217</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="D53" s="1">
-        <v>20</v>
+        <v>6.3</v>
       </c>
       <c r="E53" s="1">
-        <v>1.54</v>
+        <v>0.54</v>
       </c>
       <c r="F53" s="1">
         <v>0.12</v>
       </c>
       <c r="G53" s="1">
-        <v>38</v>
-      </c>
-      <c r="H53" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="D54" s="1">
-        <v>20</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E54" s="1">
-        <v>1.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F54" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>0.11</v>
       </c>
       <c r="G54" s="1">
-        <v>38</v>
-      </c>
-      <c r="H54" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G55" s="1">
         <v>42</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="1">
-        <v>20</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="F55" s="1">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G55" s="1">
-        <v>38</v>
-      </c>
-      <c r="H55" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>289</v>
@@ -2724,18 +2717,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>21</v>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>1440</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D57" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E57" s="1">
         <v>1.54</v>
@@ -2746,22 +2739,22 @@
       <c r="G57" s="1">
         <v>38</v>
       </c>
-      <c r="H57" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D58" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E58" s="1">
         <v>1.54</v>
@@ -2772,16 +2765,16 @@
       <c r="G58" s="1">
         <v>38</v>
       </c>
-      <c r="H58" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>16</v>
+      <c r="I58" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>1530</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>35</v>
@@ -2802,18 +2795,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D60" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E60" s="1">
         <v>1.54</v>
@@ -2824,22 +2817,22 @@
       <c r="G60" s="1">
         <v>38</v>
       </c>
-      <c r="H60" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>142</v>
+      <c r="I60" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>1569</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D61" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E61" s="1">
         <v>1.54</v>
@@ -2850,22 +2843,22 @@
       <c r="G61" s="1">
         <v>38</v>
       </c>
-      <c r="H61" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I61" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D62" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E62" s="1">
         <v>1.54</v>
@@ -2876,22 +2869,22 @@
       <c r="G62" s="1">
         <v>38</v>
       </c>
-      <c r="H62" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I62" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D63" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E63" s="1">
         <v>1.54</v>
@@ -2902,22 +2895,22 @@
       <c r="G63" s="1">
         <v>38</v>
       </c>
-      <c r="H63" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>26</v>
+      <c r="I63" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>1633</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D64" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E64" s="1">
         <v>1.54</v>
@@ -2928,22 +2921,22 @@
       <c r="G64" s="1">
         <v>38</v>
       </c>
-      <c r="H64" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I64" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D65" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E65" s="1">
         <v>1.54</v>
@@ -2954,22 +2947,22 @@
       <c r="G65" s="1">
         <v>38</v>
       </c>
-      <c r="H65" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>25</v>
+      <c r="I65" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>1683</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D66" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E66" s="1">
         <v>1.54</v>
@@ -2980,68 +2973,74 @@
       <c r="G66" s="1">
         <v>38</v>
       </c>
-      <c r="H66" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>55</v>
+      <c r="I66" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>1700</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>289</v>
+        <v>35</v>
       </c>
       <c r="D67" s="1">
-        <v>8.3000000000000007</v>
+        <v>11</v>
       </c>
       <c r="E67" s="1">
-        <v>0.56999999999999995</v>
+        <v>1.54</v>
       </c>
       <c r="F67" s="1">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G67" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="I67" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
+      </c>
+      <c r="B68" t="s">
+        <v>157</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>289</v>
+        <v>35</v>
       </c>
       <c r="D68" s="1">
-        <v>8.3000000000000007</v>
+        <v>11</v>
       </c>
       <c r="E68" s="1">
-        <v>0.56999999999999995</v>
+        <v>1.54</v>
       </c>
       <c r="F68" s="1">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G68" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="I68" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D69" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E69" s="1">
         <v>1.54</v>
@@ -3052,18 +3051,18 @@
       <c r="G69" s="1">
         <v>38</v>
       </c>
-      <c r="H69" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D70" s="1">
@@ -3082,14 +3081,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D71" s="1">
@@ -3108,12 +3107,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>35</v>
@@ -3134,18 +3133,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D73" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E73" s="1">
         <v>1.54</v>
@@ -3156,11 +3155,11 @@
       <c r="G73" s="1">
         <v>38</v>
       </c>
-      <c r="H73" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I73" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>279</v>
       </c>
@@ -3187,6 +3186,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I74">
+    <sortCondition ref="C2:C74"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3199,13 +3201,13 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -3213,7 +3215,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -3221,7 +3223,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -3229,7 +3231,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -3237,7 +3239,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -3245,7 +3247,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -3253,7 +3255,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -3272,17 +3274,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>144</v>
       </c>
@@ -3302,7 +3304,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -3322,7 +3324,7 @@
         <v>-82.757036999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -3342,7 +3344,7 @@
         <v>-82.722536000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>150</v>
       </c>
@@ -3362,7 +3364,7 @@
         <v>-82.723491999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -3382,7 +3384,7 @@
         <v>-82.710830000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -3402,7 +3404,7 @@
         <v>-82.696158999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -3422,7 +3424,7 @@
         <v>-82.697146000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -3442,7 +3444,7 @@
         <v>-82.740590999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -3462,7 +3464,7 @@
         <v>-82.764122999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -3482,7 +3484,7 @@
         <v>-82.765980999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>160</v>
       </c>
@@ -3502,7 +3504,7 @@
         <v>-82.770308999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -3522,7 +3524,7 @@
         <v>-82.765307000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>163</v>
       </c>
@@ -3542,7 +3544,7 @@
         <v>-82.764602999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>164</v>
       </c>
@@ -3562,7 +3564,7 @@
         <v>-82.761505999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>165</v>
       </c>
@@ -3582,7 +3584,7 @@
         <v>-82.639453000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>167</v>
       </c>
@@ -3602,7 +3604,7 @@
         <v>-82.694147999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -3622,7 +3624,7 @@
         <v>-82.697884999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -3642,7 +3644,7 @@
         <v>-82.691727</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>171</v>
       </c>
@@ -3662,7 +3664,7 @@
         <v>-82.684650000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>172</v>
       </c>
@@ -3682,7 +3684,7 @@
         <v>-82.694044000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -3702,7 +3704,7 @@
         <v>-82.722860999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -3722,7 +3724,7 @@
         <v>-82.709120999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>176</v>
       </c>
@@ -3742,7 +3744,7 @@
         <v>-82.710400000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>177</v>
       </c>
@@ -3762,7 +3764,7 @@
         <v>-82.768835999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -3782,7 +3784,7 @@
         <v>-82.780066000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -3802,7 +3804,7 @@
         <v>-82.776065000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>180</v>
       </c>
@@ -3822,7 +3824,7 @@
         <v>-82.759876000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>181</v>
       </c>
@@ -3842,7 +3844,7 @@
         <v>-82.753029999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>183</v>
       </c>
@@ -3862,7 +3864,7 @@
         <v>-82.7547</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>184</v>
       </c>
@@ -3882,7 +3884,7 @@
         <v>-82.737899999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>185</v>
       </c>
@@ -3902,7 +3904,7 @@
         <v>-82.740549999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>186</v>
       </c>
@@ -3922,7 +3924,7 @@
         <v>-82.746799999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>187</v>
       </c>
@@ -3942,7 +3944,7 @@
         <v>-82.737782999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>188</v>
       </c>
@@ -3962,7 +3964,7 @@
         <v>-82.703731000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>189</v>
       </c>
@@ -3982,7 +3984,7 @@
         <v>-82.689852999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>192</v>
       </c>
@@ -4002,7 +4004,7 @@
         <v>-82.701791</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>193</v>
       </c>
@@ -4022,7 +4024,7 @@
         <v>-82.698875999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -4042,7 +4044,7 @@
         <v>-82.696267000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>195</v>
       </c>
@@ -4062,7 +4064,7 @@
         <v>-82.692380999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>196</v>
       </c>
@@ -4082,7 +4084,7 @@
         <v>-82.694027000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>197</v>
       </c>
@@ -4102,7 +4104,7 @@
         <v>-82.721708000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>198</v>
       </c>
@@ -4122,7 +4124,7 @@
         <v>-82.695250000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>199</v>
       </c>
@@ -4142,7 +4144,7 @@
         <v>-82.747136999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>200</v>
       </c>
@@ -4162,7 +4164,7 @@
         <v>-82.713548000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>201</v>
       </c>
@@ -4182,7 +4184,7 @@
         <v>-82.725444999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>202</v>
       </c>
@@ -4202,7 +4204,7 @@
         <v>-82.748092999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>203</v>
       </c>
@@ -4222,7 +4224,7 @@
         <v>-82.783998999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>204</v>
       </c>
@@ -4242,7 +4244,7 @@
         <v>-82.805969000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>205</v>
       </c>
@@ -4262,7 +4264,7 @@
         <v>-82.801349000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>206</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>-82.781784999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>207</v>
       </c>
@@ -4302,7 +4304,7 @@
         <v>-82.781530000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -4322,7 +4324,7 @@
         <v>-82.745982999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>209</v>
       </c>
@@ -4342,7 +4344,7 @@
         <v>-82.751176000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>210</v>
       </c>
@@ -4362,7 +4364,7 @@
         <v>-82.758813000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>211</v>
       </c>
@@ -4382,7 +4384,7 @@
         <v>-82.754149999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>212</v>
       </c>
@@ -4402,7 +4404,7 @@
         <v>-82.759795999999994</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>213</v>
       </c>
@@ -4422,7 +4424,7 @@
         <v>-82.750726999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>215</v>
       </c>
@@ -4442,7 +4444,7 @@
         <v>-82.738349999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>214</v>
       </c>
@@ -4462,7 +4464,7 @@
         <v>-82.762150000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>218</v>
       </c>
@@ -4482,7 +4484,7 @@
         <v>-82.750590000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>219</v>
       </c>
@@ -4502,7 +4504,7 @@
         <v>-82.742400000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>220</v>
       </c>
@@ -4522,7 +4524,7 @@
         <v>-82.759609999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>221</v>
       </c>
@@ -4542,7 +4544,7 @@
         <v>-82.757800000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>222</v>
       </c>
@@ -4562,7 +4564,7 @@
         <v>-82.717813000000007</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>223</v>
       </c>
@@ -4582,7 +4584,7 @@
         <v>-82.722548000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>224</v>
       </c>
@@ -4602,7 +4604,7 @@
         <v>-82.725682000000006</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>225</v>
       </c>
@@ -4622,7 +4624,7 @@
         <v>-82.725611000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>226</v>
       </c>
@@ -4642,7 +4644,7 @@
         <v>-82.725143000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>227</v>
       </c>
@@ -4662,7 +4664,7 @@
         <v>-82.730187999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>228</v>
       </c>
@@ -4682,7 +4684,7 @@
         <v>-82.732553999999993</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>229</v>
       </c>
@@ -4702,7 +4704,7 @@
         <v>-82.731842</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>230</v>
       </c>
@@ -4722,7 +4724,7 @@
         <v>-82.719750000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>231</v>
       </c>
@@ -4742,7 +4744,7 @@
         <v>-82.667529000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>232</v>
       </c>
@@ -4762,7 +4764,7 @@
         <v>-82.651881000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>233</v>
       </c>
@@ -4782,7 +4784,7 @@
         <v>-82.676052999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>234</v>
       </c>
@@ -4802,7 +4804,7 @@
         <v>-82.752199000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>235</v>
       </c>
@@ -4822,7 +4824,7 @@
         <v>-82.700351999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>236</v>
       </c>
@@ -4842,7 +4844,7 @@
         <v>-82.715112000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>237</v>
       </c>
@@ -4862,7 +4864,7 @@
         <v>-82.729363000000006</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -4882,7 +4884,7 @@
         <v>-82.776813000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -4902,7 +4904,7 @@
         <v>-82.771511000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>240</v>
       </c>
@@ -4922,7 +4924,7 @@
         <v>-82.772942999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>241</v>
       </c>
@@ -4942,7 +4944,7 @@
         <v>-82.772739999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>242</v>
       </c>
@@ -4962,7 +4964,7 @@
         <v>-82.822490999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>244</v>
       </c>
@@ -4982,7 +4984,7 @@
         <v>-82.807484000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -5002,7 +5004,7 @@
         <v>-82.824898000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>248</v>
       </c>
@@ -5022,7 +5024,7 @@
         <v>-82.808897000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>249</v>
       </c>
@@ -5042,7 +5044,7 @@
         <v>-82.809510000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>250</v>
       </c>
@@ -5062,7 +5064,7 @@
         <v>-82.813869999999994</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>251</v>
       </c>
@@ -5082,7 +5084,7 @@
         <v>-82.808066999999696</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>252</v>
       </c>
@@ -5102,7 +5104,7 @@
         <v>-82.816580000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>253</v>
       </c>
@@ -5122,7 +5124,7 @@
         <v>-82.804545000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>254</v>
       </c>
@@ -5142,7 +5144,7 @@
         <v>-82.72242</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>256</v>
       </c>
@@ -5162,7 +5164,7 @@
         <v>-82.616264999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>258</v>
       </c>
@@ -5182,7 +5184,7 @@
         <v>-82.728945999999993</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>260</v>
       </c>
@@ -5202,7 +5204,7 @@
         <v>-82.736000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>261</v>
       </c>
@@ -5222,7 +5224,7 @@
         <v>-82.731661000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>262</v>
       </c>
@@ -5242,7 +5244,7 @@
         <v>-82.720528000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>263</v>
       </c>
@@ -5262,7 +5264,7 @@
         <v>-82.695728000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>264</v>
       </c>
@@ -5282,7 +5284,7 @@
         <v>-82.724119999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>265</v>
       </c>
@@ -5302,7 +5304,7 @@
         <v>-82.732685000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>266</v>
       </c>
@@ -5322,7 +5324,7 @@
         <v>-82.683394000000007</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>267</v>
       </c>
@@ -5342,7 +5344,7 @@
         <v>-82.731505999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>270</v>
       </c>
@@ -5362,7 +5364,7 @@
         <v>-82.720281</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>273</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>-82.729787000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>274</v>
       </c>
@@ -5402,7 +5404,7 @@
         <v>-82.642373000000006</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>276</v>
       </c>
@@ -5422,7 +5424,7 @@
         <v>-82.626583999999994</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>278</v>
       </c>
@@ -5442,7 +5444,7 @@
         <v>-82.681276999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>281</v>
       </c>
@@ -5462,7 +5464,7 @@
         <v>-82.688475999999994</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>282</v>
       </c>
@@ -5482,7 +5484,7 @@
         <v>-82.684027</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>284</v>
       </c>
@@ -5502,7 +5504,7 @@
         <v>-82.642402000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>285</v>
       </c>
@@ -5522,7 +5524,7 @@
         <v>-82.772577999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>288</v>
       </c>
@@ -5548,17 +5550,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ebcefb84-3943-4c67-86e4-95e0d5522177" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="20a86c8e-58bd-487e-986c-19c6170a5cfd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B730D8DC4DFB374C886B31D158660B04" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b7ff6c03879b1f266d5ea38ee21f191f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="20a86c8e-58bd-487e-986c-19c6170a5cfd" xmlns:ns3="ebcefb84-3943-4c67-86e4-95e0d5522177" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ad91feefbbf9c03787a59590c558b3e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B730D8DC4DFB374C886B31D158660B04" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c7b2a44c3204d196172482da32476cf">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="20a86c8e-58bd-487e-986c-19c6170a5cfd" xmlns:ns3="ebcefb84-3943-4c67-86e4-95e0d5522177" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="447da8927e53f285c23cc8bbcad2da18" ns2:_="" ns3:_="">
     <xsd:import namespace="20a86c8e-58bd-487e-986c-19c6170a5cfd"/>
     <xsd:import namespace="ebcefb84-3943-4c67-86e4-95e0d5522177"/>
     <xsd:element name="properties">
@@ -5579,6 +5583,7 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5646,6 +5651,11 @@
     <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="21" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5764,44 +5774,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ebcefb84-3943-4c67-86e4-95e0d5522177" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="20a86c8e-58bd-487e-986c-19c6170a5cfd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45BDAAEB-4F8C-4301-B90B-EF9ABD213FC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA574A5-6CC6-4F56-9F42-D8DECEC2B26B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="20a86c8e-58bd-487e-986c-19c6170a5cfd"/>
-    <ds:schemaRef ds:uri="ebcefb84-3943-4c67-86e4-95e0d5522177"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67C3CBFC-B408-4AC6-998F-0F89C93E332F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5810,4 +5791,16 @@
     <ds:schemaRef ds:uri="20a86c8e-58bd-487e-986c-19c6170a5cfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC533CB-CDFA-44DE-A983-8E3AE0E5EB45}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45BDAAEB-4F8C-4301-B90B-EF9ABD213FC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>